--- a/Additional_File_2.xlsx
+++ b/Additional_File_2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/carina-nina_vorisek_bih-charite_de/Documents/BIH/NFDI4Health/Deliverable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{66C46FE5-0FBE-43BB-89DB-98999921FA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68390F22-A62D-4930-8723-AB241263391D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB95903-2A09-4335-A347-12B06AD90474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="560" windowWidth="15520" windowHeight="10240" xr2:uid="{430FD285-8D53-497E-84D0-E47890865996}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ISO!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -347,7 +350,7 @@
     <t>Health informatics — Principles and guidelines for the measurement of conformance in the implementation of terminological systems</t>
   </si>
   <si>
-    <t>ISO 13119:2012</t>
+    <t>ISO 13119:2022</t>
   </si>
   <si>
     <t>Health informatics — Clinical knowledge resources — Metadata</t>
@@ -1161,8 +1164,8 @@
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2302,15 +2305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100446366B6115821498F44ABDA06810297" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c0bd8f97cb8259c19e6a93c687989ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3281b33-5e35-47b8-941f-e4cf108953ac" xmlns:ns3="1d551d69-6617-46b6-ad2e-6110e151f9ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4e948a978ed708d4baef6c93d9bdce5" ns2:_="" ns3:_="">
     <xsd:import namespace="e3281b33-5e35-47b8-941f-e4cf108953ac"/>
@@ -2559,7 +2553,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="1d551d69-6617-46b6-ad2e-6110e151f9ea" xsi:nil="true"/>
@@ -2570,14 +2564,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D27F11A1-D92B-4EB5-900E-DA292437FDA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC36D09-15DD-4554-88F0-997BB4CCC623}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC36D09-15DD-4554-88F0-997BB4CCC623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26D607E4-3905-4939-A80D-23DE0CE957BF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26D607E4-3905-4939-A80D-23DE0CE957BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D27F11A1-D92B-4EB5-900E-DA292437FDA3}"/>
 </file>